--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>11.35234771866045</v>
+        <v>7.583387664024001</v>
       </c>
       <c r="R2">
-        <v>102.171129467944</v>
+        <v>68.250488976216</v>
       </c>
       <c r="S2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="T2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>5.920929490879112</v>
+        <v>5.920929490879113</v>
       </c>
       <c r="R3">
-        <v>53.288365417912</v>
+        <v>53.28836541791201</v>
       </c>
       <c r="S3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="T3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>8.225461287782668</v>
+        <v>4.641668008467334</v>
       </c>
       <c r="R4">
-        <v>49.35276772669601</v>
+        <v>27.850008050804</v>
       </c>
       <c r="S4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="T4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3884013333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.165204</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.272275</v>
+      </c>
+      <c r="N5">
+        <v>0.816825</v>
+      </c>
+      <c r="O5">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P5">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q5">
+        <v>0.1057519730333333</v>
+      </c>
+      <c r="R5">
+        <v>0.9517677573000002</v>
+      </c>
+      <c r="S5">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="T5">
+        <v>0.006330742102249548</v>
       </c>
     </row>
   </sheetData>
